--- a/figures/6_FlyBack/BarChart1.xlsx
+++ b/figures/6_FlyBack/BarChart1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Third Stage Specific Impulse</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>SPARTAN Structural Mass</t>
-  </si>
-  <si>
-    <t>Third Stage Mass</t>
   </si>
   <si>
     <t>SPARTAN Fuel Mass</t>
@@ -43,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,7 +90,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -188,10 +185,22 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.5620342343589509E-5"/>
-                  <c:y val="0"/>
+                  <c:x val="2.1665900121232698E-3"/>
+                  <c:y val="4.6296296296294602E-3"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>0.6</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -201,9 +210,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-D9F4-494F-ADC4-F1D9F7F1232F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -221,12 +227,45 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-D9F4-494F-ADC4-F1D9F7F1232F}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5458558302236502E-4"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>1.4</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-D9F4-494F-ADC4-F1D9F7F1232F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -262,7 +301,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -284,28 +323,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$1:$G$1</c:f>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>SPARTAN Fuel Mass</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SPARTAN Structural Mass</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Maximum Dynamic Pressure</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>SPARTAN Fuel Mass</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Third Stage Mass</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>SPARTAN Structural Mass</c:v>
+                  <c:v>SPARTAN Specific Impulse</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>SPARTAN Drag</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>SPARTAN Specific Impulse</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Third Stage Specific Impulse</c:v>
                 </c:pt>
               </c:strCache>
@@ -313,35 +349,32 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$G$2</c:f>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7</c:v>
+                  <c:v>-1.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.4</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.5</c:v>
+                  <c:v>-1.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D9F4-494F-ADC4-F1D9F7F1232F}"/>
             </c:ext>
@@ -367,33 +400,68 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$1:$G$1</c:f>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>SPARTAN Fuel Mass</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SPARTAN Structural Mass</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Maximum Dynamic Pressure</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>SPARTAN Fuel Mass</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Third Stage Mass</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>SPARTAN Structural Mass</c:v>
+                  <c:v>SPARTAN Specific Impulse</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>SPARTAN Drag</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>SPARTAN Specific Impulse</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Third Stage Specific Impulse</c:v>
                 </c:pt>
               </c:strCache>
@@ -401,35 +469,32 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$G$3</c:f>
+              <c:f>Sheet1!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.4</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D9F4-494F-ADC4-F1D9F7F1232F}"/>
             </c:ext>
@@ -446,11 +511,11 @@
         </c:dLbls>
         <c:gapWidth val="65"/>
         <c:overlap val="100"/>
-        <c:axId val="206093736"/>
-        <c:axId val="467536664"/>
+        <c:axId val="224364936"/>
+        <c:axId val="61614480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206093736"/>
+        <c:axId val="224364936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -490,7 +555,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467536664"/>
+        <c:crossAx val="61614480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -498,7 +563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="467536664"/>
+        <c:axId val="61614480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-2"/>
@@ -559,7 +624,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206093736"/>
+        <c:crossAx val="224364936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1546,84 +1611,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="B1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.4</v>
-      </c>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>-1.3</v>
       </c>
       <c r="D2">
-        <v>-1.4</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
-        <v>-1.5</v>
+        <v>1.7</v>
       </c>
       <c r="F2">
-        <v>1.7</v>
+        <v>-1.8</v>
       </c>
       <c r="G2">
-        <v>4.5999999999999996</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>-0.1</v>
-      </c>
       <c r="D3">
-        <v>-0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>-0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/figures/6_FlyBack/BarChart1.xlsx
+++ b/figures/6_FlyBack/BarChart1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,22 +19,22 @@
     <t>Third Stage Specific Impulse</t>
   </si>
   <si>
-    <t>SPARTAN Specific Impulse</t>
-  </si>
-  <si>
-    <t>SPARTAN Drag</t>
-  </si>
-  <si>
-    <t>SPARTAN Structural Mass</t>
-  </si>
-  <si>
-    <t>SPARTAN Fuel Mass</t>
-  </si>
-  <si>
     <t>Maximum Dynamic Pressure</t>
   </si>
   <si>
     <t>variation with no return</t>
+  </si>
+  <si>
+    <t>Scramjet Specific Impulse</t>
+  </si>
+  <si>
+    <t>Scramjet Accelerator Drag</t>
+  </si>
+  <si>
+    <t>Scramjet Accelerator Structural Mass</t>
+  </si>
+  <si>
+    <t>Scramjet Accelerator Fuel Mass</t>
   </si>
 </sst>
 </file>
@@ -207,7 +207,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-371A-4173-AADA-57DDE1952E0A}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
@@ -217,8 +220,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.6398411463808567E-3"/>
-                  <c:y val="0"/>
+                  <c:x val="3.9932249484501102E-4"/>
+                  <c:y val="3.6453776611256925E-7"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -263,7 +266,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-371A-4173-AADA-57DDE1952E0A}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
@@ -327,19 +333,19 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>SPARTAN Fuel Mass</c:v>
+                  <c:v>Scramjet Accelerator Fuel Mass</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>SPARTAN Structural Mass</c:v>
+                  <c:v>Scramjet Accelerator Structural Mass</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Maximum Dynamic Pressure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>SPARTAN Specific Impulse</c:v>
+                  <c:v>Scramjet Specific Impulse</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>SPARTAN Drag</c:v>
+                  <c:v>Scramjet Accelerator Drag</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Third Stage Specific Impulse</c:v>
@@ -357,7 +363,7 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.3</c:v>
+                  <c:v>-1.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.9</c:v>
@@ -418,6 +424,30 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-371A-4173-AADA-57DDE1952E0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -437,6 +467,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-371A-4173-AADA-57DDE1952E0A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:delete val="1"/>
@@ -447,19 +482,19 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>SPARTAN Fuel Mass</c:v>
+                  <c:v>Scramjet Accelerator Fuel Mass</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>SPARTAN Structural Mass</c:v>
+                  <c:v>Scramjet Accelerator Structural Mass</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Maximum Dynamic Pressure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>SPARTAN Specific Impulse</c:v>
+                  <c:v>Scramjet Specific Impulse</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>SPARTAN Drag</c:v>
+                  <c:v>Scramjet Accelerator Drag</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Third Stage Specific Impulse</c:v>
@@ -477,7 +512,7 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
@@ -511,11 +546,11 @@
         </c:dLbls>
         <c:gapWidth val="65"/>
         <c:overlap val="100"/>
-        <c:axId val="224364936"/>
-        <c:axId val="61614480"/>
+        <c:axId val="245184208"/>
+        <c:axId val="148522016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="224364936"/>
+        <c:axId val="245184208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -555,7 +590,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61614480"/>
+        <c:crossAx val="148522016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -563,7 +598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61614480"/>
+        <c:axId val="148522016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-2"/>
@@ -624,7 +659,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224364936"/>
+        <c:crossAx val="245184208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1306,7 +1341,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1613,27 +1654,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -1644,7 +1685,7 @@
         <v>0.6</v>
       </c>
       <c r="C2">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="D2">
         <v>0.9</v>
@@ -1664,7 +1705,7 @@
         <v>0.1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="D3">
         <v>0.5</v>
@@ -1679,7 +1720,7 @@
         <v>0.6</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
